--- a/tg403/data/mgl.xlsx
+++ b/tg403/data/mgl.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Final_SMILES</t>
+          <t>SMILES</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -10536,8 +10536,10 @@
           <t>26140-60-3</t>
         </is>
       </c>
-      <c r="B484" t="n">
-        <v>0</v>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>c1ccc(cc1)c2ccc(cc2)c3ccccc3</t>
+        </is>
       </c>
       <c r="C484" t="n">
         <v>4</v>
@@ -17113,8 +17115,10 @@
           <t>68424-85-1</t>
         </is>
       </c>
-      <c r="B799" t="n">
-        <v>0</v>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>[Cl-].CCCCCCCCCCCCCC[N+](C)(C)Cc1ccccc1</t>
+        </is>
       </c>
       <c r="C799" t="n">
         <v>4</v>
